--- a/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.05380146509749657</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07985318920959511</v>
+        <v>0.0798531892095951</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05087661141972866</v>
@@ -697,7 +697,7 @@
         <v>0.03729959684645228</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06312168108682877</v>
+        <v>0.06312168108682875</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01977711661155494</v>
+        <v>0.02019536374264429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009194490663655609</v>
+        <v>0.008833023327989161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008543639497664419</v>
+        <v>0.008652593541992541</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0281743762460149</v>
+        <v>0.02660574588829272</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05544625609409757</v>
+        <v>0.05473094879841137</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0679297707066778</v>
+        <v>0.06723023820239658</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03955504365366574</v>
+        <v>0.03989194548171077</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06625285860656493</v>
+        <v>0.06763911649824142</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04268586689358281</v>
+        <v>0.04126164816535715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04461556974230226</v>
+        <v>0.04479766279934729</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02830139951005639</v>
+        <v>0.02867027678494803</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05388588986383472</v>
+        <v>0.05390735935727964</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04076592812322864</v>
+        <v>0.04285233796751456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03119429455368888</v>
+        <v>0.02974233990041022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0265833122583719</v>
+        <v>0.02613603699661361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05753393017021757</v>
+        <v>0.05666255873429893</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08244915207279152</v>
+        <v>0.0818450632761682</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09927563711411913</v>
+        <v>0.09724090603142159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07031532014962853</v>
+        <v>0.0701228772921603</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09425826431258796</v>
+        <v>0.09694112037482283</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0601676060215766</v>
+        <v>0.0597611771563101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06463481828006508</v>
+        <v>0.06459551522844403</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04693435224738764</v>
+        <v>0.04792931522240415</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0746517487784074</v>
+        <v>0.07454710546356905</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03365771652967281</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04453824057485829</v>
+        <v>0.04453824057485828</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0298120435588872</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009765067784872588</v>
+        <v>0.009358223941946358</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007325169445359439</v>
+        <v>0.006805347787802098</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007559074344608199</v>
+        <v>0.007319501449141765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01317134170991449</v>
+        <v>0.01328579827220917</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0368655809069213</v>
+        <v>0.03531504583112219</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03438798354476487</v>
+        <v>0.03376243969205324</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02575531312877807</v>
+        <v>0.02657540686278751</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03796466050187573</v>
+        <v>0.03674601214492937</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02408009970416772</v>
+        <v>0.02443038809359605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02146924871792173</v>
+        <v>0.02145365136483263</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01803339262962265</v>
+        <v>0.01757293663442529</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0269158372982098</v>
+        <v>0.02698944207966806</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02121131719707766</v>
+        <v>0.02156543097673336</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01718882012859081</v>
+        <v>0.01677869584303497</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01721741312220567</v>
+        <v>0.01713832109009845</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02456404205336877</v>
+        <v>0.02514590319268637</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05835421384841043</v>
+        <v>0.05800495979085703</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05472637068885163</v>
+        <v>0.05501971298089911</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04230346473291712</v>
+        <v>0.04244484164065303</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05284376615778097</v>
+        <v>0.05267189469108483</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03638305825344098</v>
+        <v>0.03644794597028064</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03241672216276097</v>
+        <v>0.03299783992715038</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02775208145807112</v>
+        <v>0.02737643732079411</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03616208030144169</v>
+        <v>0.03662473690779153</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01163015361356837</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0170893700705592</v>
+        <v>0.01708937007055919</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03630769105832137</v>
@@ -957,7 +957,7 @@
         <v>0.04679222073039883</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0489635166056744</v>
+        <v>0.04896351660567438</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03481031080115916</v>
@@ -969,7 +969,7 @@
         <v>0.02924734520726023</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03328305417491859</v>
+        <v>0.03328305417491858</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01930801571480571</v>
+        <v>0.01991442607020723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005895804810388076</v>
+        <v>0.005921943139161691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004340044227938429</v>
+        <v>0.003974149536328539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008776344796935686</v>
+        <v>0.008882676069971583</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02104896703302568</v>
+        <v>0.0223419418338813</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03896710638237101</v>
+        <v>0.03687467384026751</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03030917187811175</v>
+        <v>0.02957046702605216</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03651089597747046</v>
+        <v>0.03548445517381199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02477921344270566</v>
+        <v>0.02316182052657757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02569815921179002</v>
+        <v>0.02448815846966046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02101850873688242</v>
+        <v>0.02064363297319846</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02586433049642297</v>
+        <v>0.02584562297099445</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05403662512152502</v>
+        <v>0.0565635425279702</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03376804820221745</v>
+        <v>0.03926840560317117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02366603164299108</v>
+        <v>0.02368747737608375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03051578389448856</v>
+        <v>0.03062697713119868</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05797728391685598</v>
+        <v>0.05722278591787145</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08354638533687191</v>
+        <v>0.08316665642683116</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06981522469623218</v>
+        <v>0.06541189244274821</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06333146455806103</v>
+        <v>0.06310311052048034</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0491507747249153</v>
+        <v>0.04770386995425394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05418850880210645</v>
+        <v>0.05133606522618982</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04307780872704727</v>
+        <v>0.04131556908825988</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04267083591860223</v>
+        <v>0.04271594362085432</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01253082252472103</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02164767781382486</v>
+        <v>0.02164767781382487</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05317416256904241</v>
@@ -1093,7 +1093,7 @@
         <v>0.04137235286992143</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05318240114203319</v>
+        <v>0.0531824011420332</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03801259464494729</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009905753278187063</v>
+        <v>0.009713788632527375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009232283458828894</v>
+        <v>0.008849958522264827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0170841903193561</v>
+        <v>0.01722404907875493</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05272603102640745</v>
+        <v>0.05202197709933518</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03515041141979074</v>
+        <v>0.03540595456643193</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04748836675418776</v>
+        <v>0.04762585160059311</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03254567177882461</v>
+        <v>0.03266354856350798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02378835219953633</v>
+        <v>0.02322472486724079</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03397322258201505</v>
+        <v>0.03428956205690172</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01888247701738104</v>
+        <v>0.01817925894626468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01697062547111538</v>
+        <v>0.01688273279353471</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02685732831410276</v>
+        <v>0.02708162509426609</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06886118680458202</v>
+        <v>0.06920967081674591</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04864422241997698</v>
+        <v>0.04885576977462585</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05988290386004903</v>
+        <v>0.05976335827139573</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04278801532888894</v>
+        <v>0.04226304386166337</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03181560255609402</v>
+        <v>0.03148489293487119</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04202242499777131</v>
+        <v>0.04174600106463555</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20405</v>
+        <v>20836</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8936</v>
+        <v>8584</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6445</v>
+        <v>6527</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16258</v>
+        <v>15353</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>72918</v>
+        <v>71977</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90523</v>
+        <v>89590</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39344</v>
+        <v>39679</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54313</v>
+        <v>55450</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>100177</v>
+        <v>96834</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>102813</v>
+        <v>103233</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>49499</v>
+        <v>50145</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>75270</v>
+        <v>75300</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42059</v>
+        <v>44212</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>30316</v>
+        <v>28905</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20053</v>
+        <v>19716</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33200</v>
+        <v>32697</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>108430</v>
+        <v>107636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>132294</v>
+        <v>129582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>69940</v>
+        <v>69748</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>77272</v>
+        <v>79471</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>141203</v>
+        <v>140250</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>148946</v>
+        <v>148856</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>82089</v>
+        <v>83829</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>104276</v>
+        <v>104130</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16526</v>
+        <v>15838</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14357</v>
+        <v>13339</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15696</v>
+        <v>15198</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29380</v>
+        <v>29635</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>58530</v>
+        <v>56069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>60171</v>
+        <v>59077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>51209</v>
+        <v>52840</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>82410</v>
+        <v>79765</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>78984</v>
+        <v>80133</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>79646</v>
+        <v>79589</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>73300</v>
+        <v>71428</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>118464</v>
+        <v>118788</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35898</v>
+        <v>36497</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33690</v>
+        <v>32887</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35750</v>
+        <v>35586</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>54792</v>
+        <v>56090</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>92647</v>
+        <v>92093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>95759</v>
+        <v>96272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>84112</v>
+        <v>84393</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>114708</v>
+        <v>114335</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>119339</v>
+        <v>119552</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>120259</v>
+        <v>122415</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>112803</v>
+        <v>111277</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>159159</v>
+        <v>161196</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10647</v>
+        <v>10981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2832</v>
+        <v>2844</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2374</v>
+        <v>2173</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6245</v>
+        <v>6321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10028</v>
+        <v>10644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17833</v>
+        <v>16876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16644</v>
+        <v>16238</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26831</v>
+        <v>26077</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25469</v>
+        <v>23806</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24105</v>
+        <v>22970</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23037</v>
+        <v>22626</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>37412</v>
+        <v>37385</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29796</v>
+        <v>31190</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16220</v>
+        <v>18862</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12943</v>
+        <v>12954</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21715</v>
+        <v>21794</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27621</v>
+        <v>27262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>38235</v>
+        <v>38062</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38338</v>
+        <v>35920</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46541</v>
+        <v>46373</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>50518</v>
+        <v>49031</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>50828</v>
+        <v>48153</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>47214</v>
+        <v>45283</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61722</v>
+        <v>61787</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>33800</v>
+        <v>33145</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31183</v>
+        <v>29892</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60123</v>
+        <v>60615</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>186651</v>
+        <v>184159</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>124155</v>
+        <v>125057</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>176912</v>
+        <v>177424</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>226264</v>
+        <v>227084</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>164371</v>
+        <v>160476</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>246121</v>
+        <v>248413</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64431</v>
+        <v>62031</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>57320</v>
+        <v>57023</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>94516</v>
+        <v>95306</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>243770</v>
+        <v>245003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>171816</v>
+        <v>172563</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>223086</v>
+        <v>222641</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>297471</v>
+        <v>293821</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>219837</v>
+        <v>217552</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>304434</v>
+        <v>302432</v>
       </c>
     </row>
     <row r="20">
